--- a/Symphony/2021/OCTOBER/All Details/24.10.2021/MC Bank Statement October-2021.xlsx
+++ b/Symphony/2021/OCTOBER/All Details/24.10.2021/MC Bank Statement October-2021.xlsx
@@ -2386,7 +2386,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="374">
+  <cellXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3324,9 +3324,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="36" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4137,33 +4134,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="328"/>
-      <c r="B1" s="328"/>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="328"/>
-      <c r="F1" s="328"/>
+      <c r="A1" s="327"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="329"/>
-      <c r="B2" s="326" t="s">
+      <c r="A2" s="328"/>
+      <c r="B2" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="325"/>
+      <c r="E2" s="325"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="329"/>
-      <c r="B3" s="327" t="s">
+      <c r="A3" s="328"/>
+      <c r="B3" s="326" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="329"/>
+      <c r="A4" s="328"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -4181,7 +4178,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="329"/>
+      <c r="A5" s="328"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -4199,7 +4196,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="329"/>
+      <c r="A6" s="328"/>
       <c r="B6" s="28"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -4211,7 +4208,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="329"/>
+      <c r="A7" s="328"/>
       <c r="B7" s="28" t="s">
         <v>70</v>
       </c>
@@ -4230,7 +4227,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="329"/>
+      <c r="A8" s="328"/>
       <c r="B8" s="28" t="s">
         <v>71</v>
       </c>
@@ -4249,7 +4246,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="329"/>
+      <c r="A9" s="328"/>
       <c r="B9" s="28" t="s">
         <v>73</v>
       </c>
@@ -4268,7 +4265,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="329"/>
+      <c r="A10" s="328"/>
       <c r="B10" s="28" t="s">
         <v>74</v>
       </c>
@@ -4287,7 +4284,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="329"/>
+      <c r="A11" s="328"/>
       <c r="B11" s="28" t="s">
         <v>75</v>
       </c>
@@ -4306,7 +4303,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="329"/>
+      <c r="A12" s="328"/>
       <c r="B12" s="28" t="s">
         <v>76</v>
       </c>
@@ -4325,7 +4322,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="329"/>
+      <c r="A13" s="328"/>
       <c r="B13" s="28" t="s">
         <v>77</v>
       </c>
@@ -4344,7 +4341,7 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="329"/>
+      <c r="A14" s="328"/>
       <c r="B14" s="28" t="s">
         <v>78</v>
       </c>
@@ -4363,7 +4360,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="329"/>
+      <c r="A15" s="328"/>
       <c r="B15" s="28" t="s">
         <v>79</v>
       </c>
@@ -4382,7 +4379,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="329"/>
+      <c r="A16" s="328"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -4395,7 +4392,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="329"/>
+      <c r="A17" s="328"/>
       <c r="B17" s="28"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -4408,7 +4405,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="329"/>
+      <c r="A18" s="328"/>
       <c r="B18" s="28"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -4421,7 +4418,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="329"/>
+      <c r="A19" s="328"/>
       <c r="B19" s="28"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -4434,7 +4431,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="329"/>
+      <c r="A20" s="328"/>
       <c r="B20" s="28"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -4447,7 +4444,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="329"/>
+      <c r="A21" s="328"/>
       <c r="B21" s="28"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -4460,7 +4457,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="329"/>
+      <c r="A22" s="328"/>
       <c r="B22" s="28"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -4473,7 +4470,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="329"/>
+      <c r="A23" s="328"/>
       <c r="B23" s="28"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -4486,7 +4483,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="329"/>
+      <c r="A24" s="328"/>
       <c r="B24" s="28"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -4499,7 +4496,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="329"/>
+      <c r="A25" s="328"/>
       <c r="B25" s="28"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -4512,7 +4509,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="329"/>
+      <c r="A26" s="328"/>
       <c r="B26" s="28"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -4525,7 +4522,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="329"/>
+      <c r="A27" s="328"/>
       <c r="B27" s="28"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -4538,7 +4535,7 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="329"/>
+      <c r="A28" s="328"/>
       <c r="B28" s="28"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -4551,7 +4548,7 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="329"/>
+      <c r="A29" s="328"/>
       <c r="B29" s="28"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -4564,7 +4561,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="329"/>
+      <c r="A30" s="328"/>
       <c r="B30" s="28"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -4577,7 +4574,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="329"/>
+      <c r="A31" s="328"/>
       <c r="B31" s="28"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -4590,7 +4587,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="329"/>
+      <c r="A32" s="328"/>
       <c r="B32" s="28"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -4603,7 +4600,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="329"/>
+      <c r="A33" s="328"/>
       <c r="B33" s="28"/>
       <c r="C33" s="27"/>
       <c r="D33" s="30"/>
@@ -4616,7 +4613,7 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="329"/>
+      <c r="A34" s="328"/>
       <c r="B34" s="28"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4629,7 +4626,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="329"/>
+      <c r="A35" s="328"/>
       <c r="B35" s="28"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4642,7 +4639,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="329"/>
+      <c r="A36" s="328"/>
       <c r="B36" s="28"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -4655,7 +4652,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="329"/>
+      <c r="A37" s="328"/>
       <c r="B37" s="28"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -4668,7 +4665,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="329"/>
+      <c r="A38" s="328"/>
       <c r="B38" s="28"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -4681,7 +4678,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="329"/>
+      <c r="A39" s="328"/>
       <c r="B39" s="28"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -4694,7 +4691,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="329"/>
+      <c r="A40" s="328"/>
       <c r="B40" s="28"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -4707,7 +4704,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="329"/>
+      <c r="A41" s="328"/>
       <c r="B41" s="28"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -4720,7 +4717,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="329"/>
+      <c r="A42" s="328"/>
       <c r="B42" s="28"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -4733,7 +4730,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="329"/>
+      <c r="A43" s="328"/>
       <c r="B43" s="28"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -4746,7 +4743,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="329"/>
+      <c r="A44" s="328"/>
       <c r="B44" s="28"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -4759,7 +4756,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="329"/>
+      <c r="A45" s="328"/>
       <c r="B45" s="28"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -4772,7 +4769,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="329"/>
+      <c r="A46" s="328"/>
       <c r="B46" s="28"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -4785,7 +4782,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="329"/>
+      <c r="A47" s="328"/>
       <c r="B47" s="28"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -4798,7 +4795,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="329"/>
+      <c r="A48" s="328"/>
       <c r="B48" s="28"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -4811,7 +4808,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="329"/>
+      <c r="A49" s="328"/>
       <c r="B49" s="28"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -4824,7 +4821,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="329"/>
+      <c r="A50" s="328"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -4837,7 +4834,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="329"/>
+      <c r="A51" s="328"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -4850,7 +4847,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="329"/>
+      <c r="A52" s="328"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -4863,7 +4860,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="329"/>
+      <c r="A53" s="328"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -4876,7 +4873,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="329"/>
+      <c r="A54" s="328"/>
       <c r="B54" s="28"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -4889,7 +4886,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="329"/>
+      <c r="A55" s="328"/>
       <c r="B55" s="28"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -4901,7 +4898,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="329"/>
+      <c r="A56" s="328"/>
       <c r="B56" s="28"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -4913,7 +4910,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="329"/>
+      <c r="A57" s="328"/>
       <c r="B57" s="28"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -4925,7 +4922,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="329"/>
+      <c r="A58" s="328"/>
       <c r="B58" s="28"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -4937,7 +4934,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="329"/>
+      <c r="A59" s="328"/>
       <c r="B59" s="28"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -4949,7 +4946,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="329"/>
+      <c r="A60" s="328"/>
       <c r="B60" s="28"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -4961,7 +4958,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="329"/>
+      <c r="A61" s="328"/>
       <c r="B61" s="28"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -4973,7 +4970,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="329"/>
+      <c r="A62" s="328"/>
       <c r="B62" s="28"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -4985,7 +4982,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="329"/>
+      <c r="A63" s="328"/>
       <c r="B63" s="28"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -4997,7 +4994,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="329"/>
+      <c r="A64" s="328"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -5009,7 +5006,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="329"/>
+      <c r="A65" s="328"/>
       <c r="B65" s="28"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -5021,7 +5018,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="329"/>
+      <c r="A66" s="328"/>
       <c r="B66" s="28"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -5033,7 +5030,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="329"/>
+      <c r="A67" s="328"/>
       <c r="B67" s="28"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -5045,7 +5042,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="329"/>
+      <c r="A68" s="328"/>
       <c r="B68" s="28"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -5057,7 +5054,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="329"/>
+      <c r="A69" s="328"/>
       <c r="B69" s="28"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -5069,7 +5066,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="329"/>
+      <c r="A70" s="328"/>
       <c r="B70" s="28"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -5081,7 +5078,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="329"/>
+      <c r="A71" s="328"/>
       <c r="B71" s="28"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -5093,7 +5090,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="329"/>
+      <c r="A72" s="328"/>
       <c r="B72" s="28"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -5105,7 +5102,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="329"/>
+      <c r="A73" s="328"/>
       <c r="B73" s="28"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -5117,7 +5114,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="329"/>
+      <c r="A74" s="328"/>
       <c r="B74" s="28"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -5129,7 +5126,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="329"/>
+      <c r="A75" s="328"/>
       <c r="B75" s="28"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -5141,7 +5138,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="329"/>
+      <c r="A76" s="328"/>
       <c r="B76" s="28"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -5153,7 +5150,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="329"/>
+      <c r="A77" s="328"/>
       <c r="B77" s="28"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -5165,7 +5162,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="329"/>
+      <c r="A78" s="328"/>
       <c r="B78" s="28"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -5177,7 +5174,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="329"/>
+      <c r="A79" s="328"/>
       <c r="B79" s="28"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -5189,7 +5186,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="329"/>
+      <c r="A80" s="328"/>
       <c r="B80" s="28"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -5201,7 +5198,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="329"/>
+      <c r="A81" s="328"/>
       <c r="B81" s="28"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -5213,7 +5210,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="329"/>
+      <c r="A82" s="328"/>
       <c r="B82" s="28"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -5225,7 +5222,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="329"/>
+      <c r="A83" s="328"/>
       <c r="B83" s="33"/>
       <c r="C83" s="29">
         <f>SUM(C5:C72)</f>
@@ -5282,33 +5279,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="328"/>
-      <c r="B1" s="328"/>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="328"/>
-      <c r="F1" s="328"/>
+      <c r="A1" s="327"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="329"/>
-      <c r="B2" s="326" t="s">
+      <c r="A2" s="328"/>
+      <c r="B2" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="325"/>
+      <c r="E2" s="325"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="329"/>
-      <c r="B3" s="327" t="s">
+      <c r="A3" s="328"/>
+      <c r="B3" s="326" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="329"/>
+      <c r="A4" s="328"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -5326,7 +5323,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="329"/>
+      <c r="A5" s="328"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -5344,7 +5341,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="329"/>
+      <c r="A6" s="328"/>
       <c r="B6" s="28"/>
       <c r="C6" s="302"/>
       <c r="D6" s="302"/>
@@ -5356,7 +5353,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="329"/>
+      <c r="A7" s="328"/>
       <c r="B7" s="28" t="s">
         <v>203</v>
       </c>
@@ -5375,7 +5372,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="329"/>
+      <c r="A8" s="328"/>
       <c r="B8" s="28" t="s">
         <v>206</v>
       </c>
@@ -5394,7 +5391,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="329"/>
+      <c r="A9" s="328"/>
       <c r="B9" s="28" t="s">
         <v>208</v>
       </c>
@@ -5413,7 +5410,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="329"/>
+      <c r="A10" s="328"/>
       <c r="B10" s="28" t="s">
         <v>209</v>
       </c>
@@ -5432,7 +5429,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="329"/>
+      <c r="A11" s="328"/>
       <c r="B11" s="28" t="s">
         <v>209</v>
       </c>
@@ -5453,7 +5450,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="329"/>
+      <c r="A12" s="328"/>
       <c r="B12" s="28" t="s">
         <v>212</v>
       </c>
@@ -5472,7 +5469,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="329"/>
+      <c r="A13" s="328"/>
       <c r="B13" s="28" t="s">
         <v>213</v>
       </c>
@@ -5491,7 +5488,7 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="329"/>
+      <c r="A14" s="328"/>
       <c r="B14" s="28" t="s">
         <v>216</v>
       </c>
@@ -5510,7 +5507,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="329"/>
+      <c r="A15" s="328"/>
       <c r="B15" s="28" t="s">
         <v>218</v>
       </c>
@@ -5529,7 +5526,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="329"/>
+      <c r="A16" s="328"/>
       <c r="B16" s="28" t="s">
         <v>219</v>
       </c>
@@ -5548,7 +5545,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="329"/>
+      <c r="A17" s="328"/>
       <c r="B17" s="28" t="s">
         <v>224</v>
       </c>
@@ -5567,7 +5564,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="329"/>
+      <c r="A18" s="328"/>
       <c r="B18" s="28" t="s">
         <v>227</v>
       </c>
@@ -5586,7 +5583,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="329"/>
+      <c r="A19" s="328"/>
       <c r="B19" s="28" t="s">
         <v>228</v>
       </c>
@@ -5605,7 +5602,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="329"/>
+      <c r="A20" s="328"/>
       <c r="B20" s="28" t="s">
         <v>229</v>
       </c>
@@ -5624,7 +5621,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="329"/>
+      <c r="A21" s="328"/>
       <c r="B21" s="28" t="s">
         <v>230</v>
       </c>
@@ -5643,7 +5640,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="329"/>
+      <c r="A22" s="328"/>
       <c r="B22" s="28" t="s">
         <v>231</v>
       </c>
@@ -5662,7 +5659,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="329"/>
+      <c r="A23" s="328"/>
       <c r="B23" s="28" t="s">
         <v>236</v>
       </c>
@@ -5681,7 +5678,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="329"/>
+      <c r="A24" s="328"/>
       <c r="B24" s="28" t="s">
         <v>237</v>
       </c>
@@ -5700,7 +5697,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="329"/>
+      <c r="A25" s="328"/>
       <c r="B25" s="28" t="s">
         <v>238</v>
       </c>
@@ -5719,7 +5716,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="329"/>
+      <c r="A26" s="328"/>
       <c r="B26" s="28" t="s">
         <v>238</v>
       </c>
@@ -5738,7 +5735,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="329"/>
+      <c r="A27" s="328"/>
       <c r="B27" s="28" t="s">
         <v>239</v>
       </c>
@@ -5757,7 +5754,7 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="329"/>
+      <c r="A28" s="328"/>
       <c r="B28" s="28" t="s">
         <v>240</v>
       </c>
@@ -5776,7 +5773,7 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="329"/>
+      <c r="A29" s="328"/>
       <c r="B29" s="28"/>
       <c r="C29" s="302"/>
       <c r="D29" s="302"/>
@@ -5789,7 +5786,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="329"/>
+      <c r="A30" s="328"/>
       <c r="B30" s="28"/>
       <c r="C30" s="302"/>
       <c r="D30" s="302"/>
@@ -5802,7 +5799,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="329"/>
+      <c r="A31" s="328"/>
       <c r="B31" s="28"/>
       <c r="C31" s="302"/>
       <c r="D31" s="302"/>
@@ -5815,7 +5812,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="329"/>
+      <c r="A32" s="328"/>
       <c r="B32" s="28"/>
       <c r="C32" s="302"/>
       <c r="D32" s="302"/>
@@ -5828,7 +5825,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="329"/>
+      <c r="A33" s="328"/>
       <c r="B33" s="28"/>
       <c r="C33" s="302"/>
       <c r="D33" s="306"/>
@@ -5841,7 +5838,7 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="329"/>
+      <c r="A34" s="328"/>
       <c r="B34" s="28"/>
       <c r="C34" s="302"/>
       <c r="D34" s="302"/>
@@ -5854,7 +5851,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="329"/>
+      <c r="A35" s="328"/>
       <c r="B35" s="28"/>
       <c r="C35" s="302"/>
       <c r="D35" s="302"/>
@@ -5867,7 +5864,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="329"/>
+      <c r="A36" s="328"/>
       <c r="B36" s="28"/>
       <c r="C36" s="302"/>
       <c r="D36" s="302"/>
@@ -5880,7 +5877,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="329"/>
+      <c r="A37" s="328"/>
       <c r="B37" s="28"/>
       <c r="C37" s="302"/>
       <c r="D37" s="302"/>
@@ -5893,7 +5890,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="329"/>
+      <c r="A38" s="328"/>
       <c r="B38" s="28"/>
       <c r="C38" s="302"/>
       <c r="D38" s="302"/>
@@ -5906,7 +5903,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="329"/>
+      <c r="A39" s="328"/>
       <c r="B39" s="28"/>
       <c r="C39" s="302"/>
       <c r="D39" s="302"/>
@@ -5919,7 +5916,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="329"/>
+      <c r="A40" s="328"/>
       <c r="B40" s="28"/>
       <c r="C40" s="302"/>
       <c r="D40" s="302"/>
@@ -5932,7 +5929,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="329"/>
+      <c r="A41" s="328"/>
       <c r="B41" s="28"/>
       <c r="C41" s="302"/>
       <c r="D41" s="302"/>
@@ -5945,7 +5942,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="329"/>
+      <c r="A42" s="328"/>
       <c r="B42" s="28"/>
       <c r="C42" s="302"/>
       <c r="D42" s="302"/>
@@ -5958,7 +5955,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="329"/>
+      <c r="A43" s="328"/>
       <c r="B43" s="28"/>
       <c r="C43" s="302"/>
       <c r="D43" s="302"/>
@@ -5971,7 +5968,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="329"/>
+      <c r="A44" s="328"/>
       <c r="B44" s="28"/>
       <c r="C44" s="302"/>
       <c r="D44" s="302"/>
@@ -5984,7 +5981,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="329"/>
+      <c r="A45" s="328"/>
       <c r="B45" s="28"/>
       <c r="C45" s="302"/>
       <c r="D45" s="302"/>
@@ -5997,7 +5994,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="329"/>
+      <c r="A46" s="328"/>
       <c r="B46" s="28"/>
       <c r="C46" s="302"/>
       <c r="D46" s="302"/>
@@ -6010,7 +6007,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="329"/>
+      <c r="A47" s="328"/>
       <c r="B47" s="28"/>
       <c r="C47" s="302"/>
       <c r="D47" s="302"/>
@@ -6023,7 +6020,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="329"/>
+      <c r="A48" s="328"/>
       <c r="B48" s="28"/>
       <c r="C48" s="302"/>
       <c r="D48" s="302"/>
@@ -6036,7 +6033,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="329"/>
+      <c r="A49" s="328"/>
       <c r="B49" s="28"/>
       <c r="C49" s="302"/>
       <c r="D49" s="302"/>
@@ -6049,7 +6046,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="329"/>
+      <c r="A50" s="328"/>
       <c r="B50" s="28"/>
       <c r="C50" s="302"/>
       <c r="D50" s="302"/>
@@ -6062,7 +6059,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="329"/>
+      <c r="A51" s="328"/>
       <c r="B51" s="28"/>
       <c r="C51" s="302"/>
       <c r="D51" s="302"/>
@@ -6075,7 +6072,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="329"/>
+      <c r="A52" s="328"/>
       <c r="B52" s="28"/>
       <c r="C52" s="302"/>
       <c r="D52" s="302"/>
@@ -6088,7 +6085,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="329"/>
+      <c r="A53" s="328"/>
       <c r="B53" s="28"/>
       <c r="C53" s="302"/>
       <c r="D53" s="302"/>
@@ -6101,7 +6098,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="329"/>
+      <c r="A54" s="328"/>
       <c r="B54" s="28"/>
       <c r="C54" s="302"/>
       <c r="D54" s="302"/>
@@ -6114,7 +6111,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="329"/>
+      <c r="A55" s="328"/>
       <c r="B55" s="28"/>
       <c r="C55" s="302"/>
       <c r="D55" s="302"/>
@@ -6126,7 +6123,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="329"/>
+      <c r="A56" s="328"/>
       <c r="B56" s="28"/>
       <c r="C56" s="302"/>
       <c r="D56" s="302"/>
@@ -6138,7 +6135,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="329"/>
+      <c r="A57" s="328"/>
       <c r="B57" s="28"/>
       <c r="C57" s="302"/>
       <c r="D57" s="302"/>
@@ -6150,7 +6147,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="329"/>
+      <c r="A58" s="328"/>
       <c r="B58" s="28"/>
       <c r="C58" s="302"/>
       <c r="D58" s="302"/>
@@ -6162,7 +6159,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="329"/>
+      <c r="A59" s="328"/>
       <c r="B59" s="28"/>
       <c r="C59" s="302"/>
       <c r="D59" s="302"/>
@@ -6174,7 +6171,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="329"/>
+      <c r="A60" s="328"/>
       <c r="B60" s="28"/>
       <c r="C60" s="302"/>
       <c r="D60" s="302"/>
@@ -6186,7 +6183,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="329"/>
+      <c r="A61" s="328"/>
       <c r="B61" s="28"/>
       <c r="C61" s="302"/>
       <c r="D61" s="302"/>
@@ -6198,7 +6195,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="329"/>
+      <c r="A62" s="328"/>
       <c r="B62" s="28"/>
       <c r="C62" s="302"/>
       <c r="D62" s="302"/>
@@ -6210,7 +6207,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="329"/>
+      <c r="A63" s="328"/>
       <c r="B63" s="28"/>
       <c r="C63" s="302"/>
       <c r="D63" s="302"/>
@@ -6222,7 +6219,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="329"/>
+      <c r="A64" s="328"/>
       <c r="B64" s="28"/>
       <c r="C64" s="302"/>
       <c r="D64" s="302"/>
@@ -6234,7 +6231,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="329"/>
+      <c r="A65" s="328"/>
       <c r="B65" s="28"/>
       <c r="C65" s="302"/>
       <c r="D65" s="302"/>
@@ -6246,7 +6243,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="329"/>
+      <c r="A66" s="328"/>
       <c r="B66" s="28"/>
       <c r="C66" s="302"/>
       <c r="D66" s="302"/>
@@ -6258,7 +6255,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="329"/>
+      <c r="A67" s="328"/>
       <c r="B67" s="28"/>
       <c r="C67" s="302"/>
       <c r="D67" s="302"/>
@@ -6270,7 +6267,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="329"/>
+      <c r="A68" s="328"/>
       <c r="B68" s="28"/>
       <c r="C68" s="302"/>
       <c r="D68" s="302"/>
@@ -6282,7 +6279,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="329"/>
+      <c r="A69" s="328"/>
       <c r="B69" s="28"/>
       <c r="C69" s="302"/>
       <c r="D69" s="302"/>
@@ -6294,7 +6291,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="329"/>
+      <c r="A70" s="328"/>
       <c r="B70" s="28"/>
       <c r="C70" s="302"/>
       <c r="D70" s="302"/>
@@ -6306,7 +6303,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="329"/>
+      <c r="A71" s="328"/>
       <c r="B71" s="28"/>
       <c r="C71" s="302"/>
       <c r="D71" s="302"/>
@@ -6318,7 +6315,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="329"/>
+      <c r="A72" s="328"/>
       <c r="B72" s="28"/>
       <c r="C72" s="302"/>
       <c r="D72" s="302"/>
@@ -6330,7 +6327,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="329"/>
+      <c r="A73" s="328"/>
       <c r="B73" s="28"/>
       <c r="C73" s="302"/>
       <c r="D73" s="302"/>
@@ -6342,7 +6339,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="329"/>
+      <c r="A74" s="328"/>
       <c r="B74" s="28"/>
       <c r="C74" s="302"/>
       <c r="D74" s="302"/>
@@ -6354,7 +6351,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="329"/>
+      <c r="A75" s="328"/>
       <c r="B75" s="28"/>
       <c r="C75" s="302"/>
       <c r="D75" s="302"/>
@@ -6366,7 +6363,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="329"/>
+      <c r="A76" s="328"/>
       <c r="B76" s="28"/>
       <c r="C76" s="302"/>
       <c r="D76" s="302"/>
@@ -6378,7 +6375,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="329"/>
+      <c r="A77" s="328"/>
       <c r="B77" s="28"/>
       <c r="C77" s="302"/>
       <c r="D77" s="302"/>
@@ -6390,7 +6387,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="329"/>
+      <c r="A78" s="328"/>
       <c r="B78" s="28"/>
       <c r="C78" s="302"/>
       <c r="D78" s="302"/>
@@ -6402,7 +6399,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="329"/>
+      <c r="A79" s="328"/>
       <c r="B79" s="28"/>
       <c r="C79" s="302"/>
       <c r="D79" s="302"/>
@@ -6414,7 +6411,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="329"/>
+      <c r="A80" s="328"/>
       <c r="B80" s="28"/>
       <c r="C80" s="302"/>
       <c r="D80" s="302"/>
@@ -6426,7 +6423,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="329"/>
+      <c r="A81" s="328"/>
       <c r="B81" s="28"/>
       <c r="C81" s="302"/>
       <c r="D81" s="302"/>
@@ -6438,7 +6435,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="329"/>
+      <c r="A82" s="328"/>
       <c r="B82" s="28"/>
       <c r="C82" s="302"/>
       <c r="D82" s="302"/>
@@ -6450,7 +6447,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="329"/>
+      <c r="A83" s="328"/>
       <c r="B83" s="33"/>
       <c r="C83" s="304">
         <f>SUM(C5:C72)</f>
@@ -6502,67 +6499,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="334"/>
-      <c r="G1" s="334"/>
-      <c r="H1" s="334"/>
-      <c r="I1" s="334"/>
-      <c r="J1" s="334"/>
-      <c r="K1" s="334"/>
-      <c r="L1" s="334"/>
-      <c r="M1" s="334"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="334"/>
-      <c r="P1" s="334"/>
-      <c r="Q1" s="334"/>
+      <c r="B1" s="333"/>
+      <c r="C1" s="333"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="333"/>
+      <c r="M1" s="333"/>
+      <c r="N1" s="333"/>
+      <c r="O1" s="333"/>
+      <c r="P1" s="333"/>
+      <c r="Q1" s="333"/>
     </row>
     <row r="2" spans="1:24" s="81" customFormat="1" ht="18">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="334" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
-      <c r="N2" s="335"/>
-      <c r="O2" s="335"/>
-      <c r="P2" s="335"/>
-      <c r="Q2" s="335"/>
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334"/>
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334"/>
     </row>
     <row r="3" spans="1:24" s="82" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="335" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
-      <c r="F3" s="337"/>
-      <c r="G3" s="337"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
-      <c r="J3" s="337"/>
-      <c r="K3" s="337"/>
-      <c r="L3" s="337"/>
-      <c r="M3" s="337"/>
-      <c r="N3" s="337"/>
-      <c r="O3" s="337"/>
-      <c r="P3" s="337"/>
-      <c r="Q3" s="338"/>
+      <c r="B3" s="336"/>
+      <c r="C3" s="336"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="337"/>
       <c r="S3" s="65"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6571,52 +6568,52 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="83" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="339" t="s">
+      <c r="A4" s="338" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="341" t="s">
+      <c r="B4" s="340" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="330" t="s">
+      <c r="C4" s="329" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="330" t="s">
+      <c r="D4" s="329" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="330" t="s">
+      <c r="E4" s="329" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="330" t="s">
+      <c r="F4" s="329" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="330" t="s">
+      <c r="G4" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="330" t="s">
+      <c r="H4" s="329" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="330" t="s">
+      <c r="I4" s="329" t="s">
         <v>172</v>
       </c>
-      <c r="J4" s="330" t="s">
+      <c r="J4" s="329" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="330" t="s">
+      <c r="K4" s="329" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="330" t="s">
+      <c r="L4" s="329" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="330" t="s">
+      <c r="M4" s="329" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="330" t="s">
+      <c r="N4" s="329" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="332" t="s">
+      <c r="O4" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="343" t="s">
+      <c r="P4" s="342" t="s">
         <v>82</v>
       </c>
       <c r="Q4" s="145" t="s">
@@ -6629,22 +6626,22 @@
       <c r="W4" s="85"/>
     </row>
     <row r="5" spans="1:24" s="83" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="340"/>
-      <c r="B5" s="342"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="331"/>
-      <c r="E5" s="331"/>
-      <c r="F5" s="331"/>
-      <c r="G5" s="331"/>
-      <c r="H5" s="331"/>
-      <c r="I5" s="331"/>
-      <c r="J5" s="331"/>
-      <c r="K5" s="331"/>
-      <c r="L5" s="331"/>
-      <c r="M5" s="331"/>
-      <c r="N5" s="331"/>
-      <c r="O5" s="333"/>
-      <c r="P5" s="344"/>
+      <c r="A5" s="339"/>
+      <c r="B5" s="341"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="330"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="330"/>
+      <c r="K5" s="330"/>
+      <c r="L5" s="330"/>
+      <c r="M5" s="330"/>
+      <c r="N5" s="330"/>
+      <c r="O5" s="332"/>
+      <c r="P5" s="343"/>
       <c r="Q5" s="146" t="s">
         <v>56</v>
       </c>
@@ -9838,11 +9835,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9857,6 +9849,11 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9870,7 +9867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A116" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
@@ -9898,14 +9895,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="348" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="350"/>
-      <c r="C1" s="350"/>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="351"/>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="349"/>
+      <c r="F1" s="350"/>
       <c r="G1" s="76"/>
       <c r="H1" s="76"/>
       <c r="I1" s="162"/>
@@ -9999,14 +9996,14 @@
       <c r="CS1" s="157"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="352" t="s">
+      <c r="A2" s="351" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="353"/>
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
-      <c r="E2" s="353"/>
-      <c r="F2" s="354"/>
+      <c r="B2" s="352"/>
+      <c r="C2" s="352"/>
+      <c r="D2" s="352"/>
+      <c r="E2" s="352"/>
+      <c r="F2" s="353"/>
       <c r="G2" s="76"/>
       <c r="H2" s="76"/>
       <c r="I2" s="162"/>
@@ -10100,14 +10097,14 @@
       <c r="CS2" s="157"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="355" t="s">
+      <c r="A3" s="354" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="356"/>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
-      <c r="F3" s="357"/>
+      <c r="B3" s="355"/>
+      <c r="C3" s="355"/>
+      <c r="D3" s="355"/>
+      <c r="E3" s="355"/>
+      <c r="F3" s="356"/>
       <c r="G3" s="76"/>
       <c r="H3" s="76"/>
       <c r="I3" s="162"/>
@@ -12449,14 +12446,14 @@
         <v>463910</v>
       </c>
       <c r="C24" s="67">
-        <v>464820</v>
+        <v>555440</v>
       </c>
       <c r="D24" s="64">
         <v>1670</v>
       </c>
       <c r="E24" s="64">
         <f t="shared" si="0"/>
-        <v>466490</v>
+        <v>557110</v>
       </c>
       <c r="F24" s="257"/>
       <c r="G24" s="279">
@@ -13379,7 +13376,7 @@
       </c>
       <c r="C33" s="314">
         <f>SUM(C5:C32)</f>
-        <v>11116084</v>
+        <v>11206704</v>
       </c>
       <c r="D33" s="313">
         <f>SUM(D5:D32)</f>
@@ -13387,11 +13384,11 @@
       </c>
       <c r="E33" s="313">
         <f>SUM(E5:E32)</f>
-        <v>11165959</v>
+        <v>11256579</v>
       </c>
       <c r="F33" s="313">
         <f>B33-E33</f>
-        <v>161001</v>
+        <v>70381</v>
       </c>
       <c r="G33" s="315"/>
       <c r="H33" s="158"/>
@@ -13586,12 +13583,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="152"/>
-      <c r="B35" s="347" t="s">
+      <c r="B35" s="346" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="347"/>
-      <c r="D35" s="347"/>
-      <c r="E35" s="347"/>
+      <c r="C35" s="346"/>
+      <c r="D35" s="346"/>
+      <c r="E35" s="346"/>
       <c r="F35" s="153"/>
       <c r="G35" s="158"/>
       <c r="H35" s="158"/>
@@ -14470,10 +14467,10 @@
         <v>224</v>
       </c>
       <c r="F43" s="153"/>
-      <c r="G43" s="348"/>
-      <c r="H43" s="348"/>
-      <c r="I43" s="348"/>
-      <c r="J43" s="348"/>
+      <c r="G43" s="347"/>
+      <c r="H43" s="347"/>
+      <c r="I43" s="347"/>
+      <c r="J43" s="347"/>
       <c r="K43" s="76"/>
       <c r="L43" s="162"/>
       <c r="M43" s="76"/>
@@ -14803,10 +14800,10 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="233">
-        <v>590660</v>
+        <v>540660</v>
       </c>
       <c r="E46" s="205" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F46" s="150"/>
       <c r="G46" s="157"/>
@@ -15413,10 +15410,10 @@
         <v>1712688979</v>
       </c>
       <c r="D51" s="234">
-        <v>105300</v>
+        <v>60300</v>
       </c>
       <c r="E51" s="199" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F51" s="151"/>
       <c r="G51" s="157"/>
@@ -15535,10 +15532,10 @@
         <v>1739791780</v>
       </c>
       <c r="D52" s="234">
-        <v>2870</v>
+        <v>6240</v>
       </c>
       <c r="E52" s="197" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F52" s="151"/>
       <c r="G52" s="157"/>
@@ -15657,10 +15654,10 @@
         <v>1725821212</v>
       </c>
       <c r="D53" s="234">
-        <v>21350</v>
+        <v>22360</v>
       </c>
       <c r="E53" s="199" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="F53" s="151"/>
       <c r="G53" s="157"/>
@@ -23031,14 +23028,14 @@
       <c r="CS118" s="157"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="345" t="s">
+      <c r="A119" s="344" t="s">
         <v>42</v>
       </c>
-      <c r="B119" s="346"/>
-      <c r="C119" s="358"/>
+      <c r="B119" s="345"/>
+      <c r="C119" s="357"/>
       <c r="D119" s="237">
         <f>SUM(D37:D118)</f>
-        <v>2157311</v>
+        <v>2066691</v>
       </c>
       <c r="E119" s="229"/>
       <c r="F119" s="157"/>
@@ -23238,14 +23235,14 @@
       <c r="CS120" s="157"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="345" t="s">
+      <c r="A121" s="344" t="s">
         <v>43</v>
       </c>
-      <c r="B121" s="346"/>
-      <c r="C121" s="346"/>
+      <c r="B121" s="345"/>
+      <c r="C121" s="345"/>
       <c r="D121" s="237">
         <f>D119+M121</f>
-        <v>2157311</v>
+        <v>2066691</v>
       </c>
       <c r="E121" s="229"/>
       <c r="F121" s="157"/>
@@ -34478,7 +34475,7 @@
   <dimension ref="A1:AC220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34497,35 +34494,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="359" t="s">
+      <c r="A1" s="358" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="360"/>
-      <c r="C1" s="360"/>
-      <c r="D1" s="360"/>
-      <c r="E1" s="361"/>
+      <c r="B1" s="359"/>
+      <c r="C1" s="359"/>
+      <c r="D1" s="359"/>
+      <c r="E1" s="360"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="368" t="s">
+      <c r="A2" s="367" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="369"/>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="370"/>
+      <c r="B2" s="368"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="368"/>
+      <c r="E2" s="369"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="362" t="s">
+      <c r="A3" s="361" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="363"/>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="364"/>
+      <c r="B3" s="362"/>
+      <c r="C3" s="362"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="363"/>
       <c r="F3" s="5"/>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -34552,13 +34549,13 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="26.25" customHeight="1">
-      <c r="A4" s="371" t="s">
+      <c r="A4" s="370" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="372"/>
-      <c r="C4" s="372"/>
-      <c r="D4" s="372"/>
-      <c r="E4" s="373"/>
+      <c r="B4" s="371"/>
+      <c r="C4" s="371"/>
+      <c r="D4" s="371"/>
+      <c r="E4" s="372"/>
       <c r="F4" s="5"/>
       <c r="G4" s="11"/>
       <c r="H4" s="8"/>
@@ -34585,13 +34582,13 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" ht="23.25">
-      <c r="A5" s="371" t="s">
+      <c r="A5" s="370" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="372"/>
-      <c r="C5" s="372"/>
-      <c r="D5" s="372"/>
-      <c r="E5" s="373"/>
+      <c r="B5" s="371"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="372"/>
       <c r="F5" s="5"/>
       <c r="G5" s="54"/>
       <c r="H5" s="6"/>
@@ -34703,7 +34700,7 @@
         <v>80</v>
       </c>
       <c r="E8" s="283">
-        <v>90618.439761907794</v>
+        <v>181238.43976190779</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="321"/>
@@ -34808,7 +34805,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="282">
-        <v>2157311</v>
+        <v>2066691</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="266"/>
@@ -35061,13 +35058,13 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18" spans="1:29" ht="22.5">
-      <c r="A18" s="365" t="s">
+      <c r="A18" s="364" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="366"/>
-      <c r="C18" s="366"/>
-      <c r="D18" s="366"/>
-      <c r="E18" s="367"/>
+      <c r="B18" s="365"/>
+      <c r="C18" s="365"/>
+      <c r="D18" s="365"/>
+      <c r="E18" s="366"/>
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="17"/>
@@ -35221,8 +35218,8 @@
       <c r="D22" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="325">
-        <v>105300</v>
+      <c r="E22" s="60">
+        <v>60300</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="8"/>
@@ -35329,7 +35326,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="299">
-        <v>590660</v>
+        <v>540660</v>
       </c>
       <c r="C25" s="140"/>
       <c r="D25" s="295" t="s">
